--- a/InputData/elec/MCGLT/Max Cap Growth Lookup Table.xlsx
+++ b/InputData/elec/MCGLT/Max Cap Growth Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\elec\MCGLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD532DEB-1323-4224-938D-4E8EC8989189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE0324-B077-4311-8BBD-EB2B865D96A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="2130" windowWidth="15915" windowHeight="15015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="1245" windowWidth="26520" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="6" r:id="rId1"/>
@@ -1627,11 +1627,11 @@
         <v>118</v>
       </c>
       <c r="C2" s="13">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D2" s="13">
         <f>C2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -1655,11 +1655,11 @@
       </c>
       <c r="C4" s="13">
         <f>$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D4" s="13">
         <f>C4</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6" si="0">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D6" s="11">
         <f>C6</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -1711,11 +1711,11 @@
       </c>
       <c r="C8" s="13">
         <f t="shared" ref="C8" si="1">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D8" s="11">
         <f>C8</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1754,11 +1754,11 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" ref="C10" si="2">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D10" s="13">
         <f>C10</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" ref="C12" si="3">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D12" s="13">
         <f>C12</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
@@ -1917,11 +1917,11 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" ref="C14" si="4">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D14" s="11">
         <f>C14</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -1945,11 +1945,11 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" ref="C16" si="5">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D16" s="11">
         <f>C16</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="C18" s="13">
         <f t="shared" ref="C18" si="6">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D18" s="11">
         <f>C18</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,11 +2001,11 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" ref="C20" si="7">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D20" s="11">
         <f>C20</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2029,11 +2029,11 @@
       </c>
       <c r="C22" s="13">
         <f t="shared" ref="C22" si="8">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D22" s="11">
         <f>C22</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2057,11 +2057,11 @@
       </c>
       <c r="C24" s="13">
         <f t="shared" ref="C24" si="9">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D24" s="5">
         <f>C24</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C28" s="13">
         <f t="shared" ref="C28" si="10">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C30" s="13">
         <f t="shared" ref="C30" si="11">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D30" s="11">
         <v>0</v>
@@ -2170,11 +2170,11 @@
       </c>
       <c r="C32" s="13">
         <f t="shared" ref="C32" si="12">$C$2</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D32" s="11">
         <f>C32</f>
-        <v>800</v>
+        <v>2300</v>
       </c>
     </row>
   </sheetData>
